--- a/public/file_import/DATA_PENJUALAN.xlsx
+++ b/public/file_import/DATA_PENJUALAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Aplikasi-Analisa-Penjualan-Apriori\public\file_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE75840-CD87-491B-8ADA-DA64F7104F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB037240-7DF1-49BC-9B46-D9E247E26FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0976DD4B-6CF9-4F33-8BD4-974E187ED5FB}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
